--- a/Resources/2001/Advanced_Percentile_2001.xlsx
+++ b/Resources/2001/Advanced_Percentile_2001.xlsx
@@ -1378,13 +1378,13 @@
     <t>boguemu01</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Ray Allen*</t>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Vince Carter</t>
@@ -1405,7 +1405,7 @@
     <t>Tim Duncan</t>
   </si>
   <si>
-    <t>David Robinson*</t>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Kevin Garnett</t>
@@ -1414,13 +1414,13 @@
     <t>Rasheed Wallace</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Stephon Marbury</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Chris Webber</t>
@@ -1432,16 +1432,16 @@
     <t>Peja Stojakovic</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Donyell Marshall</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
-  </si>
-  <si>
-    <t>John Stockton*</t>
+    <t>Steve Nash</t>
+  </si>
+  <si>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Bonzi Wells</t>
@@ -1462,7 +1462,7 @@
     <t>Shareef Abdur-Rahim</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Andre Miller</t>
@@ -1486,7 +1486,7 @@
     <t>Lamar Odom</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Corey Maggette</t>
@@ -1501,7 +1501,7 @@
     <t>Marcus Camby</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Brian Grant</t>
@@ -1516,7 +1516,7 @@
     <t>Kurt Thomas</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Glenn Robinson</t>
@@ -1546,7 +1546,7 @@
     <t>Terrell Brandon</t>
   </si>
   <si>
-    <t>Arvydas Sabonis*</t>
+    <t>Arvydas Sabonis</t>
   </si>
   <si>
     <t>Gary Grant</t>
@@ -1633,7 +1633,7 @@
     <t>Travis Best</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Elden Campbell</t>
@@ -1657,7 +1657,7 @@
     <t>LaPhonso Ellis</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Glen Rice</t>
@@ -1708,7 +1708,7 @@
     <t>Shammond Williams</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Fred Hoiberg</t>
@@ -1774,7 +1774,7 @@
     <t>Dana Barros</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Keon Clark</t>
@@ -2242,7 +2242,7 @@
     <t>Tom Gugliotta</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Zan Tabak</t>
@@ -2380,7 +2380,7 @@
     <t>Eric Williams</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Adrian Griffin</t>
